--- a/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/forecast_summary_B08B7ZX8Q2.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" t="n">
         <v>285.9682260187059</v>
       </c>
       <c r="D2" t="n">
-        <v>403.3742657186874</v>
+        <v>405.0859846744978</v>
       </c>
       <c r="E2" t="n">
         <v>235</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C3" t="n">
         <v>274.6133866119931</v>
       </c>
       <c r="D3" t="n">
-        <v>394.2307214916509</v>
+        <v>381.8105291888959</v>
       </c>
       <c r="E3" t="n">
         <v>165</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>243.3259395804967</v>
       </c>
       <c r="D4" t="n">
-        <v>362.9691087218883</v>
+        <v>363.8797331556165</v>
       </c>
       <c r="E4" t="n">
         <v>200</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" t="n">
         <v>202.499860689597</v>
       </c>
       <c r="D5" t="n">
-        <v>323.9905277972176</v>
+        <v>319.1346566391193</v>
       </c>
       <c r="E5" t="n">
         <v>149</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" t="n">
         <v>165.0792606419539</v>
       </c>
       <c r="D6" t="n">
-        <v>285.6106333608261</v>
+        <v>280.5104419779375</v>
       </c>
       <c r="E6" t="n">
         <v>156</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>142.2582878409022</v>
       </c>
       <c r="D7" t="n">
-        <v>259.8562906051251</v>
+        <v>262.1361440456972</v>
       </c>
       <c r="E7" t="n">
         <v>160</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>135.7675178552655</v>
       </c>
       <c r="D8" t="n">
-        <v>254.79898832107</v>
+        <v>257.645423034173</v>
       </c>
       <c r="E8" t="n">
         <v>162</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
         <v>138.1545728695778</v>
       </c>
       <c r="D9" t="n">
-        <v>247.4117045701637</v>
+        <v>258.820458039839</v>
       </c>
       <c r="E9" t="n">
         <v>158</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
         <v>145.1036745800378</v>
       </c>
       <c r="D10" t="n">
-        <v>264.5692657378725</v>
+        <v>259.1066958690761</v>
       </c>
       <c r="E10" t="n">
         <v>151</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>164.8132493604114</v>
       </c>
       <c r="D11" t="n">
-        <v>273.7468806829616</v>
+        <v>277.4214667800288</v>
       </c>
       <c r="E11" t="n">
         <v>149</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" t="n">
         <v>207.7836700490494</v>
       </c>
       <c r="D12" t="n">
-        <v>330.1198509681029</v>
+        <v>319.386624926885</v>
       </c>
       <c r="E12" t="n">
         <v>155</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>264.7410264705113</v>
       </c>
       <c r="D13" t="n">
-        <v>379.5707606587577</v>
+        <v>380.2409069661697</v>
       </c>
       <c r="E13" t="n">
         <v>149</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>301.3026826216204</v>
       </c>
       <c r="D14" t="n">
-        <v>413.7746755336822</v>
+        <v>413.1202946112808</v>
       </c>
       <c r="E14" t="n">
         <v>143</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C15" t="n">
         <v>283.893614216368</v>
       </c>
       <c r="D15" t="n">
-        <v>391.7679409314399</v>
+        <v>399.6688779555259</v>
       </c>
       <c r="E15" t="n">
         <v>139</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>213.8940457373067</v>
       </c>
       <c r="D16" t="n">
-        <v>323.0190835479863</v>
+        <v>322.845968510955</v>
       </c>
       <c r="E16" t="n">
         <v>136</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" t="n">
         <v>131.7313419040612</v>
       </c>
       <c r="D17" t="n">
-        <v>251.8153043107592</v>
+        <v>242.5254735968949</v>
       </c>
       <c r="E17" t="n">
         <v>135</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C18" t="n">
         <v>82.64105903019107</v>
       </c>
       <c r="D18" t="n">
-        <v>186.5431541969656</v>
+        <v>202.1825862664193</v>
       </c>
       <c r="E18" t="n">
         <v>128</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="n">
         <v>78.61602182939933</v>
       </c>
       <c r="D19" t="n">
-        <v>189.9732212832709</v>
+        <v>195.9006426697195</v>
       </c>
       <c r="E19" t="n">
         <v>126</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" t="n">
         <v>95.52803126927876</v>
       </c>
       <c r="D20" t="n">
-        <v>217.5331644695918</v>
+        <v>206.5421326404849</v>
       </c>
       <c r="E20" t="n">
         <v>130</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
         <v>104.2435882709198</v>
       </c>
       <c r="D21" t="n">
-        <v>212.555770390078</v>
+        <v>224.5345376750785</v>
       </c>
       <c r="E21" t="n">
         <v>123</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3674</t>
+          <t>3669</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1775</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1099</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
